--- a/Analyzed/try8/data_2016.xlsx
+++ b/Analyzed/try8/data_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>66.22999999999999</v>
       </c>
       <c r="J2">
-        <v>599.4</v>
+        <v>962.20915</v>
       </c>
       <c r="K2">
         <v>1888.428</v>
       </c>
       <c r="L2">
-        <v>569.3099999999999</v>
+        <v>1039.30855</v>
       </c>
       <c r="M2">
         <v>64.89708971217001</v>
@@ -558,49 +583,64 @@
         <v>-130.84</v>
       </c>
       <c r="P2">
-        <v>519.2607358233537</v>
+        <v>683.6963548060495</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>7</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>5</v>
       </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>55.95999999999999</v>
       </c>
       <c r="J3">
-        <v>579.2</v>
+        <v>897.98144</v>
       </c>
       <c r="K3">
         <v>1551.503</v>
       </c>
       <c r="L3">
-        <v>558.8099999999999</v>
+        <v>937.8145</v>
       </c>
       <c r="M3">
         <v>62.68488993116495</v>
@@ -652,48 +692,63 @@
         <v>-120.9</v>
       </c>
       <c r="P3">
-        <v>451.2639319159516</v>
+        <v>588.6754955890483</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>6</v>
       </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
-      <c r="U3">
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
         <v>7</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>1</v>
       </c>
     </row>
@@ -728,13 +783,13 @@
         <v>45.37</v>
       </c>
       <c r="J4">
-        <v>556.8000000000001</v>
+        <v>846.6886800000001</v>
       </c>
       <c r="K4">
         <v>1757.662</v>
       </c>
       <c r="L4">
-        <v>597.4499999999999</v>
+        <v>1012.72675</v>
       </c>
       <c r="M4">
         <v>61.66888375931681</v>
@@ -746,22 +801,22 @@
         <v>-142.06</v>
       </c>
       <c r="P4">
-        <v>324.836336834689</v>
+        <v>422.3251250012489</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4">
         <v>2</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>2</v>
@@ -773,22 +828,37 @@
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+      <c r="AI4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>42.29</v>
       </c>
       <c r="J5">
-        <v>534.4</v>
+        <v>646.06678</v>
       </c>
       <c r="K5">
         <v>2423.928</v>
       </c>
       <c r="L5">
-        <v>565.3199999999999</v>
+        <v>820.7737999999999</v>
       </c>
       <c r="M5">
         <v>70.38379108783776</v>
@@ -840,49 +910,64 @@
         <v>-156</v>
       </c>
       <c r="P5">
-        <v>416.0227446892707</v>
+        <v>544.365787109048</v>
       </c>
       <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>5</v>
       </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
       <c r="V5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>2</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>45.47</v>
       </c>
       <c r="J6">
-        <v>559.8000000000001</v>
+        <v>788.38679</v>
       </c>
       <c r="K6">
         <v>2298.536</v>
       </c>
       <c r="L6">
-        <v>543.27</v>
+        <v>831.7728999999999</v>
       </c>
       <c r="M6">
         <v>75.85174063347435</v>
@@ -934,49 +1019,64 @@
         <v>-152.78</v>
       </c>
       <c r="P6">
-        <v>476.1218945325714</v>
+        <v>628.4539936328699</v>
       </c>
       <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
       <c r="U6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>3</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>45.93</v>
       </c>
       <c r="J7">
-        <v>550.2</v>
+        <v>753.58879</v>
       </c>
       <c r="K7">
         <v>1690.934</v>
       </c>
       <c r="L7">
-        <v>532.35</v>
+        <v>781.18705</v>
       </c>
       <c r="M7">
         <v>65.26930603630883</v>
@@ -1028,48 +1128,63 @@
         <v>-140.89</v>
       </c>
       <c r="P7">
-        <v>403.0976152245244</v>
+        <v>528.102396865123</v>
       </c>
       <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
       <c r="U7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
         <v>4</v>
       </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
       <c r="Z7">
         <v>3</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>1</v>
       </c>
       <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AI7">
         <v>3</v>
       </c>
     </row>
@@ -1104,13 +1219,13 @@
         <v>35.7</v>
       </c>
       <c r="J8">
-        <v>544.6</v>
+        <v>820.8048100000001</v>
       </c>
       <c r="K8">
         <v>992.789</v>
       </c>
       <c r="L8">
-        <v>529.41</v>
+        <v>950.80265</v>
       </c>
       <c r="M8">
         <v>76.5292103336993</v>
@@ -1122,49 +1237,64 @@
         <v>-205.02</v>
       </c>
       <c r="P8">
-        <v>460.1085498752324</v>
+        <v>601.3220578768173</v>
       </c>
       <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
       <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="X8">
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
         <v>4</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
-      </c>
       <c r="AB8">
         <v>2</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>39.06</v>
       </c>
       <c r="J9">
-        <v>555.2</v>
+        <v>775.7922000000001</v>
       </c>
       <c r="K9">
         <v>1714.673</v>
       </c>
       <c r="L9">
-        <v>579.8099999999999</v>
+        <v>889.9512999999999</v>
       </c>
       <c r="M9">
         <v>80.76749492080397</v>
@@ -1216,49 +1346,64 @@
         <v>-163.6</v>
       </c>
       <c r="P9">
-        <v>415.2161628841403</v>
+        <v>543.2161266258202</v>
       </c>
       <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>6</v>
-      </c>
       <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
         <v>7</v>
       </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>2</v>
-      </c>
       <c r="Y9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>2</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1292,13 +1437,13 @@
         <v>43.47</v>
       </c>
       <c r="J10">
-        <v>562.4</v>
+        <v>877.0696200000001</v>
       </c>
       <c r="K10">
         <v>2096.721</v>
       </c>
       <c r="L10">
-        <v>567</v>
+        <v>1012.3365</v>
       </c>
       <c r="M10">
         <v>70.75541679447987</v>
@@ -1310,37 +1455,37 @@
         <v>-188.64</v>
       </c>
       <c r="P10">
-        <v>363.3718500162217</v>
+        <v>473.3712261813236</v>
       </c>
       <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
         <v>9</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>6</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>6</v>
       </c>
-      <c r="T10">
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
         <v>5</v>
       </c>
-      <c r="U10">
-        <v>4</v>
-      </c>
-      <c r="V10">
-        <v>5</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>3</v>
-      </c>
       <c r="Z10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -1349,10 +1494,25 @@
         <v>5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>7</v>
+      </c>
+      <c r="AF10">
+        <v>5</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>4</v>
+      </c>
+      <c r="AI10">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1386,13 +1546,13 @@
         <v>22.52</v>
       </c>
       <c r="J11">
-        <v>485.4</v>
+        <v>517.22401</v>
       </c>
       <c r="K11">
         <v>996.4100000000001</v>
       </c>
       <c r="L11">
-        <v>502.32</v>
+        <v>624.5858500000001</v>
       </c>
       <c r="M11">
         <v>72.33037674403032</v>
@@ -1404,40 +1564,40 @@
         <v>-188.64</v>
       </c>
       <c r="P11">
-        <v>336.2612367340123</v>
+        <v>436.7237389681611</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>6</v>
       </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>2</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
       <c r="Y11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1446,6 +1606,21 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>0</v>
       </c>
     </row>
